--- a/BitcoinNotes.xlsx
+++ b/BitcoinNotes.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/team/github/MasteringBitcoin/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3408" yWindow="480" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="26860" yWindow="460" windowWidth="24340" windowHeight="26720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="How BTC works" sheetId="2" r:id="rId2"/>
+    <sheet name="BTC Transactions" sheetId="4" r:id="rId3"/>
+    <sheet name="Number Theory" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="Q7" authorId="0" shapeId="0">
+    <comment ref="Q7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -30,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -46,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="0" shapeId="0">
+    <comment ref="R18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +71,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="534">
   <si>
     <t>pool for unverified transactions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,7 +161,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -163,7 +178,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -174,7 +189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,7 +205,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -201,7 +216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +242,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -238,7 +253,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -254,7 +269,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -265,7 +280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +321,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -344,7 +359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -381,7 +396,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -392,7 +407,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -412,7 +427,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -423,7 +438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -450,7 +465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -460,7 +475,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -471,7 +486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -487,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -498,7 +513,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -508,7 +523,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -519,7 +534,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -535,7 +550,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -546,7 +561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -583,7 +598,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -594,7 +609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -607,7 +622,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -618,7 +633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -634,7 +649,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -645,7 +660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -655,7 +670,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -669,7 +684,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -680,7 +695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +770,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +781,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -782,7 +797,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -793,7 +808,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +827,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -823,7 +838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -848,7 +863,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -859,7 +874,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -878,7 +893,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -889,7 +904,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -905,7 +920,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -916,7 +931,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -966,7 +981,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -977,7 +992,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -993,7 +1008,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1004,7 +1019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1048,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1044,7 +1059,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1057,7 +1072,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1068,7 +1083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,7 +1099,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1107,7 +1122,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1118,7 +1133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1152,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1148,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1164,7 +1179,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1178,7 +1193,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1189,7 +1204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1199,7 +1214,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1210,7 +1225,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1229,7 +1244,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1252,7 +1267,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1263,7 +1278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1295,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1322,7 +1337,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1333,7 +1348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1358,7 +1373,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1378,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1389,7 +1404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1399,7 +1414,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1410,7 +1425,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1441,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1437,7 +1452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1447,7 +1462,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1468,7 +1483,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1479,7 +1494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1489,7 +1504,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1500,7 +1515,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1510,7 +1525,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1538,7 +1553,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1549,7 +1564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1589,9 +1604,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Outputs from one </t>
@@ -1600,7 +1614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1611,7 +1625,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1655,7 +1669,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1666,7 +1680,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1676,7 +1690,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1690,7 +1704,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1701,7 +1715,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1821,7 +1835,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1833,7 +1847,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1844,7 +1858,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1855,7 +1869,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1866,7 +1880,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1893,7 +1907,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1904,7 +1918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1917,7 +1931,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1928,7 +1942,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1950,7 +1964,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1965,7 +1979,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1976,7 +1990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +2003,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2000,7 +2014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2011,7 +2025,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2031,7 +2045,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2042,7 +2056,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2059,7 +2073,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2070,7 +2084,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2087,7 +2101,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2110,7 +2124,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2124,7 +2138,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2135,7 +2149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2146,7 +2160,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2157,7 +2171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2174,7 +2188,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2198,7 +2212,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2209,7 +2223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2225,7 +2239,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2239,7 +2253,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2250,7 +2264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2260,7 +2274,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2271,7 +2285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2299,7 +2313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2310,7 +2324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2320,7 +2334,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2334,7 +2348,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2345,7 +2359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2361,7 +2375,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2378,7 +2392,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2410,7 +2424,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2421,7 +2435,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2440,7 +2454,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2451,7 +2465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2464,7 +2478,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2475,7 +2489,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2485,7 +2499,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2502,7 +2516,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2516,7 +2530,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2527,7 +2541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2540,7 +2554,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2551,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2580,7 +2594,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2591,7 +2605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2605,7 +2619,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2617,7 +2631,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2628,7 +2642,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2639,7 +2653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2649,7 +2663,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2670,7 +2684,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2681,7 +2695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2691,7 +2705,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2702,7 +2716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2725,7 +2739,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2736,7 +2750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2752,7 +2766,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2762,7 +2776,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2780,7 +2794,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2812,7 +2826,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2823,7 +2837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2839,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2850,7 +2864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2860,7 +2874,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2874,7 +2888,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2885,7 +2899,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2907,7 +2921,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2918,7 +2932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2928,7 +2942,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2939,7 +2953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2958,7 +2972,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2991,7 +3005,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3002,7 +3016,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3018,7 +3032,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3052,7 +3066,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3063,7 +3077,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3082,7 +3096,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3107,7 +3121,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3119,7 +3133,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3145,7 +3159,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3183,7 +3197,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3194,7 +3208,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3210,7 +3224,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3224,7 +3238,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3235,7 +3249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3246,7 +3260,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3269,7 +3283,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3280,7 +3294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3302,7 +3316,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3329,7 +3343,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3350,7 +3364,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3364,7 +3378,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3375,7 +3389,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3403,7 +3417,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3445,7 +3459,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3459,7 +3473,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3470,7 +3484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3480,7 +3494,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3491,7 +3505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3504,7 +3518,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3515,7 +3529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3543,7 +3557,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3554,7 +3568,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3576,7 +3590,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3587,7 +3601,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3603,7 +3617,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3614,7 +3628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3639,7 +3653,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3650,7 +3664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3666,7 +3680,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3677,7 +3691,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3720,7 +3734,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3732,7 +3746,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3756,7 +3770,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3770,7 +3784,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3781,7 +3795,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3822,7 +3836,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3833,7 +3847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3847,7 +3861,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3858,7 +3872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3883,7 +3897,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3894,7 +3908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3910,7 +3924,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3918,23 +3932,2791 @@
       <t>he extends the</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter 4 Keys, Addresses, Wallets</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ownership of bitcoin is established through </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>digital keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">bitcoin addresses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>digital signatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">digital keys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">are not actually </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>stored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> in the network, but are instead c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>reated and stored by end-users in a file, or simple database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, called a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>wallet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">completely </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">independent of the bitcoin protocol </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">can be generated and managed by the user’s wallet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">software </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">without reference to the blockchain or access to the Internet </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">de- centralized trust and control, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ownership attestation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the cryptographic-proof secu‐ rity model. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>Keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> enable many of the interesting properties of bitcoin </t>
+    </r>
+  </si>
+  <si>
+    <t>所有权证明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which can only be generated with valid digital keys, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keys come in pairs consisting of a private (secret) and public key. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Think of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">public key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">as similar to a bank account number </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">private key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as similar to the secret PIN number or signature on a cheque that provides control over the account.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">they are stored inside the wallet file and managed by the bitcoin wallet software. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Every </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>bitcoin transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">requires a valid signature to be included in the blockchain, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>payment portion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> of a bitcoin transaction,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> the recipient’s public key is represented by its digital fingerprint, called a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>bitcoin address</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">which is used in the same way as the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">beneficiary name on a cheque </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">(i.e. “Pay to the order of ”). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In most cases, a bitcoin address i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">s generated from and corresponds to a public key </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">not all bitcoin addresses represent public keys; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">they can also represent other beneficiaries such as scripts </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This way, bitcoin addresses abstract the recipient of funds, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>making transaction destinations flexible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, similar to paper cheques: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a single payment instrument that can be used to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">pay into people’s accounts, company accounts, pay for bills or pay to cash. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">is the only representation of the keys that users will routinely see, as this is the part they need to share with the world. </t>
+  </si>
+  <si>
+    <t>Bitcoin Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin uses elliptic curve multiplication as the basis for its public key cryptography. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public key cryptography and crypto-currency </t>
+  </si>
+  <si>
+    <t>Public Key</t>
+  </si>
+  <si>
+    <t>Receive bitcoins</t>
+  </si>
+  <si>
+    <t>Private Key</t>
+  </si>
+  <si>
+    <t>sign transactions to spend bitcoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This signature can be validated against the public key without revealing the private key. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(different each time, but created from the same private key; see (to come)) in a transaction to spend those bitcoins. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>When spending bitcoins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, the current bitcoin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">owner presents their public key and a signature </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Through the presentation of the public key and signature </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">everyone in the bitcoin network can verify and accept the transaction as valid </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">confirming that the person transferring the bitcoins owned them at the time of the transfer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The private key (k) is a number, usually picked at random </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generating a private key from a random number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first and most important step in generating keys is to find a secure source of entropy, or randomness. </t>
+  </si>
+  <si>
+    <r>
+      <t>Creating a bitcoin key is essentially the same as “Pick a number between 1 and 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">“. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The exact method you use to pick that number does not matter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">as long as it is not predictable or repeatable. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bitcoin software uses the underlying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>operating system’s random number generators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> to produce 256 bits of entropy (randomness). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Usually, the OS random number generator is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">initialized by a human source of randomness, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">which is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">why you may be asked to wiggle your mouse around for a few seconds. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">More accurately, the private key can be any number between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t>n - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>, where n is a constant (n = 1.158 * 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>, slightly less than 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">defined as the order of the elliptic curve used in bitcoin (see </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>“Elliptic Curve Cryptography Explained” on page 65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To create such a key, we randomly pick a 256-bit number and check that it is less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t>n - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In programming terms, this is usually achieved by feeding a larger string of random bits, </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">collected from a cryptographically-secure source of randomness, into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>SHA-256 hash algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> which will conveniently produce a 256-bit number. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the result is less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t>n - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, we have a suitable private key. Otherwise, we simply try again with another random number. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">K </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">is the private key, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t xml:space="preserve">G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">is a constant point called the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">Generator Point </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t xml:space="preserve">K </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">is the resulting public key. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>=(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>+7)over(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Symbola"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>mod</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>=(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>+7)mod</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">p </t>
+    </r>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t xml:space="preserve">mod p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>(modulo prime number p) indicates that this curve is over a finite field of prime order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, also written as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where p = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">256 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>- 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>- 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>- 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>- 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>- 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>- 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">- 1, a very large prime number. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t xml:space="preserve">secp256k1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">bitcoin elliptic curve can be thought of as a much more complex pattern of dots on a unfathomably large grid. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t>secp256k1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="UbuntuMono"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">curve is defined by the following function, which pro‐ duces an elliptic curve: </t>
+    </r>
+  </si>
+  <si>
+    <t>https://eng.paxos.com/blockchain-101-elliptic-curve-cryptography</t>
+  </si>
+  <si>
+    <t>Elliptic Curve Explanation</t>
+  </si>
+  <si>
+    <t>Blockchain 101 - Foundational Math</t>
+  </si>
+  <si>
+    <t>Finite Fields</t>
+  </si>
+  <si>
+    <t>Think of them as a set of integers. </t>
+  </si>
+  <si>
+    <t>When you take any two numbers from this set and add them, you get another number from the set.</t>
+  </si>
+  <si>
+    <t>Same thing with subtraction, multiplication and division by anything other than 0.</t>
+  </si>
+  <si>
+    <t>It may seem strange that you can divide two integers and come up with another integer, but that’s part of the magic, especially when you have a finite set.</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17.600000000000001"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = {0, 1, 2, … 18}</t>
+    </r>
+  </si>
+  <si>
+    <t>So let’s start with a fairly simple field:</t>
+  </si>
+  <si>
+    <t>As you can see, there are exactly 19 elements in this field that consists of every number between 0 and 18, inclusive.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For various mathematical reasons, it turns out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields that have a prime number of elements are the most interesting,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> which is why we chose 19 here. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The field of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 19 is denoted F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fields of other orders are denoted with the number as the subscript.</t>
+  </si>
+  <si>
+    <t>ADDITION AND SUBTRACTION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We now have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>define addition and subtraction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">so that adding any two elements or subtracting any two elements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>results in another element in this set.</t>
+    </r>
+  </si>
+  <si>
+    <t>We can do this with modulo arithmetic using the order of the prime field (19).</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <t>11 + 6 = 17 % 19 = 17</t>
+  </si>
+  <si>
+    <t>17 - 6 = 11 % 19 = 11</t>
+  </si>
+  <si>
+    <t>8 + 14 = 22 % 19 = 3</t>
+  </si>
+  <si>
+    <t>4 - 12 = -8 % 19 = 11</t>
+  </si>
+  <si>
+    <r>
+      <t>As you can see, no matter which two elements we select from F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> we will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>always end up with another element in F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>MULTIPLICATION</t>
+  </si>
+  <si>
+    <t>2 * 4 = 8 % 19 = 8</t>
+  </si>
+  <si>
+    <t>7 * 3 = 21 % 19 = 2</t>
+  </si>
+  <si>
+    <t>15 * 4 = 60 % 19 = 3</t>
+  </si>
+  <si>
+    <t>11 * 11 = 121 % 19 = 7</t>
+  </si>
+  <si>
+    <r>
+      <t>Again, we can multiply any two numbers from F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and end up with another number in F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>Division, in finite field mathematics, is simply defined as the inverse of multiplication.</t>
+  </si>
+  <si>
+    <t>2 * 4 = 8  =&gt; 8 / 4 = 2</t>
+  </si>
+  <si>
+    <t>7 * 3 = 2  =&gt; 2 / 3 = 7</t>
+  </si>
+  <si>
+    <t>15 * 4 = 3 =&gt; 3 / 4 = 15</t>
+  </si>
+  <si>
+    <t>11 * 11 = 7 =&gt; 7 / 11 = 11</t>
+  </si>
+  <si>
+    <t>Problem 3 of the last exercise gives us a clue. Generalizing a bit, we have:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is a beautiful result from number theory known as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fermat’s Little Theorem.</t>
+    </r>
+  </si>
+  <si>
+    <t>Elliptical Curves</t>
+  </si>
+  <si>
+    <r>
+      <t>An elliptical curve, to be quite frank, isn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> different. The equation looks like this: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+ax+b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bitcoin uses what’s called the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>secp256k1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> curve, and that equation is simply </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and looks like this:</t>
+    </r>
+  </si>
+  <si>
+    <t>Now elliptical curves have an interesting property that we can define as point addition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point addition stems from the fact that a line defined by two points on this curve </t>
+  </si>
+  <si>
+    <t>will intersect the curve a third time.</t>
+  </si>
+  <si>
+    <t>To add P and Q, you find the third intersection point, then you reflect over the x-axis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trans‐ actions are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>data structures that encode the transfer of value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> between participants in the bitcoin system. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Each transaction is a public entry in bitcoin’s global double-entry book‐ keeping ledger, the blockchain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Lifecycle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction </t>
+  </si>
+  <si>
+    <t>creation (orgination)</t>
+  </si>
+  <si>
+    <t>signed</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>be included in a block of transactions that is recorded on the blockchain</t>
+  </si>
+  <si>
+    <t>by a mining node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once recorded on the blockchain and confirmed by sufficient subsequent blocks (con‐ firmations), </t>
+  </si>
+  <si>
+    <t>the transaction is a permanent part of the bitcoin ledger and is accepted as valid by all participants .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The funds allocated to a new owner by the transaction can then be spent in a new transaction, extending the chain of ownership and beginning the lifecycle of a transaction again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Transactions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a paper cheque </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a transaction is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>an instrument that expresses the intent to transfer money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> and is not visible to the financial system until it is submitted for execution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like a cheque, the originator of the transaction does not have to be the one signing the transaction. </t>
+  </si>
+  <si>
+    <r>
+      <t>Transactions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> can be created online or offline by anyone,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> even if the person creating the transaction is not an authorized signer on the account. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an accounts payable clerk can create bitcoin transactions and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">then have the CEO apply digital sig‐ natures to make them valid. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a bitcoin transaction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>references a specific previous transaction as its source,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> rather than an account. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcasting Transactions to the Bitcoin Network </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In essence, a bitcoin transaction is just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">300-400 bytes of data and has to reach any one of tens of thousands of bitcoin nodes. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>sender does not need to trust the nodes they use to broadcast the transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">as long as they use more than one to ensure that it propagates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The nodes don’t need to trust the sender or establish the sender’s “identity” </t>
+  </si>
+  <si>
+    <r>
+      <t>the transaction is signed and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> contains no con‐ fidential information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, private keys or credentials </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>Unlike credit card transactions,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> for example, which </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>contain sensitive information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> and can only be transmitted on encrypted networks, </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Propagating Transactions on the Bitcoin Network </t>
+  </si>
+  <si>
+    <r>
+      <t>Once a bitcoin transaction is sent to any node connected to the bitcoin network,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> the transaction will be validated by that node </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">If valid, that node will propagate it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">to the other nodes to which it is connected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">and a success message will be returned synchro‐ nously to the originator. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>discovers during startup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> through the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">peer- to-peer protocol. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The bitcoin network is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>peer-to-peer network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> meaning that each bitcoin node is con‐ nected to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">a few other bitcoin nodes </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The entire network forms a loosely connected mesh without a fixed topology or any structure making all nodes equal peers. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>within a few seconds a valid transaction will propagate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> in an exponentially expanding ripple across the network </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">until all connected nodes have received it. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Structure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Locktime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">defines the earliest time that a transaction can be added to the blockchain </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>set to zero in most transactions to indicate immediate execution.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If locktime is non- zero and below 500 million, </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it is interpreted as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>block height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, meaning the transaction is not included in the blockchain prior to the specified block height. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If it is above 500 million </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">interpreted as a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">Unix Epoch timestamp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">(seconds since Jan-1-1970) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">and the transaction is not included in the blockchain prior to the specified time. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The use of locktime is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">equivalent to post-dating a paper cheque. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Outputs and Inputs </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The fundamental </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>building block of a bitcoin transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> is an </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">unspent transaction out‐ put </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>UTXO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">and recognized as currency units by the entire net‐ work. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UTXO are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>indivisible chunks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> of bitcoin currency locked to a specific owner, recorded on the blockchain, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever a user receives </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve">bitcoin, that amount is recorded within the blockchain as a UTXO. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a user’s bitcoin may be scattered as UTXO amongst hun‐ dreds of transactions and hundreds of blocks. </t>
+  </si>
+  <si>
+    <t>The wallet calculates the user’s balance by scanning the blockchain and aggregating all UTXO belonging to that user.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The concept of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">a user’s bitcoin balance is a derived construct created by the wallet application. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">there is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>no such thing as a stored balance of a bitcoin address or account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">; there are only scattered UTXO, locked to specific owners. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A UTXO can have an arbitrary value denominated as a multiple of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>satoshis.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>If a UTXO is larger than the desired value of a transaction,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it must still be consumed in its entirety and change must be generated in the transaction. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The exception to the output and input chain is a special type of transaction called the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>coinbase transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve">which is the first transaction in each block. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">payable to that miner as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">reward for mining. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This transaction is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">placed there by the “winning” miner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">and creates brand-new bitcoin </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">outputs come first because coinbase transactions, which generate new bitcoin, have no inputs and create outputs from nothing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Outputs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every bitcoin transaction creates outputs, which are recorded on the bitcoin ledger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost all of these outputs, with one exception (see “Data Output (OP_RETURN)” on page 133) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create spendable chunks of bitcoin called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">unspent transaction outputs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">or UTXO, </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">which are then recognized by the whole network and available for the owner to spend in a future transaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sending someone bitcoin is creating an unspent transaction output (UTXO) registered to their address and available for them to spend. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UTXO are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>tracked by every full node bitcoin client in a database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> held in memory, called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t xml:space="preserve">the UTXO set or UTXO pool. </t>
+    </r>
+  </si>
+  <si>
+    <t>Transaction outputs consist of two parts:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>An amount of bitcoin,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> denominated in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>satoshis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, the smallest bitcoin unit </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>locking script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">, also known as an “encumbrance” that “locks” this amount by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">specifying the conditions that must be met to spend the output </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Spending Conditions (Encumbrances) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In most cases the locking script will lock the output to a specific bitcoin address, thereby transferring ownership of that amount to the new owner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Inputs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">transaction inputs are pointers to UTXO. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They point to a specific UTXO by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">reference to the transaction hash and sequence number </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">where the UTXO is recorded in the blockchain. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>To spend UTXO,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> a transaction input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">also includes unlocking-scripts that satisfy the spending conditions set by the UTXO. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> unlocking script </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">is usually </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">a signature proving ownership of the bitcoin address </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">that is in the locking script. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a user makes a payment, their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve">wallet constructs a transaction by selecting from the available UTXO. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the UTXO is selected, the wallet then produces unlocking scripts containing sig‐ natures for each of the UTXO, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thereby making them spendable by satisfying their lock‐ ing script conditions. </t>
+  </si>
+  <si>
+    <t>The wallet adds these UTXO references and unlocking scripts as inputs to the transaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 5-3. The structure of a transaction input </t>
+  </si>
+  <si>
+    <r>
+      <t>Note: The</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> sequence number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> is used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t>to override a transaction prior to the expiration of the transaction locktime,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> which is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MinionPro"/>
+      </rPr>
+      <t xml:space="preserve"> a feature that is currently disabled in bitcoin. </t>
+    </r>
+  </si>
+  <si>
+    <t>Most transactions set this value to the maximum integer value (0xFFFFFFFF) and it is ignored by the bitcoin network.</t>
+  </si>
+  <si>
+    <t>If the transaction has a non-zero locktime,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> at least one of its inputs must have a sequence number below 0xFFFFFFFF in order to enable locktime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Fees </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3943,7 +6725,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3963,7 +6745,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3972,7 +6754,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3980,7 +6762,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3989,7 +6771,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3997,7 +6779,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4037,7 +6819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4045,10 +6827,249 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="UbuntuMono"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="UbuntuMono"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Symbola"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="UbuntuMono"/>
+    </font>
+    <font>
+      <sz val="17.600000000000001"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Corps)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Corps)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4069,11 +7090,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4082,7 +7103,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4090,17 +7111,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -4110,7 +7131,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -4118,12 +7139,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4132,18 +7153,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4152,7 +7173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4179,9 +7200,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -4313,7 +7358,7 @@
         <xdr:cNvPr id="3" name="Curved Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4366,7 +7411,7 @@
         <xdr:cNvPr id="5" name="Curved Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4424,7 +7469,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4CE1EC-4FAE-44B8-9BFF-AE3264377944}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4CE1EC-4FAE-44B8-9BFF-AE3264377944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4485,7 +7530,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF3BB2A-1477-46B8-930E-E2DFA96E578A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF3BB2A-1477-46B8-930E-E2DFA96E578A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4546,7 +7591,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCBB6EB-C31A-4559-8342-D0CCB850B914}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCBB6EB-C31A-4559-8342-D0CCB850B914}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,7 +7635,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC54E7A-F76B-4340-AE57-236046A48535}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC54E7A-F76B-4340-AE57-236046A48535}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4651,7 +7696,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D239DB-CADC-4DEC-BE03-95D85F6A541A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D239DB-CADC-4DEC-BE03-95D85F6A541A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +7757,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36630315-E3FB-4099-B6BA-701E17F69ED8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36630315-E3FB-4099-B6BA-701E17F69ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4773,7 +7818,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188A4143-EAF7-432C-965C-40C11CC35938}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188A4143-EAF7-432C-965C-40C11CC35938}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4834,7 +7879,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06F18DF-D7EC-429D-87A3-4A34DE526C87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06F18DF-D7EC-429D-87A3-4A34DE526C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,7 +7940,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D774C7-3003-4FC2-9DF5-D5186FAB69C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D774C7-3003-4FC2-9DF5-D5186FAB69C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,7 +8001,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710E7C3E-42D0-4581-B3B6-DA120B3EDA5D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710E7C3E-42D0-4581-B3B6-DA120B3EDA5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5000,7 +8045,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD13B07D-8DA9-4315-9038-1F280B9A0B32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD13B07D-8DA9-4315-9038-1F280B9A0B32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5044,7 +8089,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C40F0-B5C7-42A2-8BA6-EE70D128E773}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C40F0-B5C7-42A2-8BA6-EE70D128E773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5070,18 +8115,666 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>665892</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>57250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598615</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>96338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2684162" y="108185736"/>
+          <a:ext cx="4642021" cy="1384602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6865</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>48055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491180</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>35553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697892" y="112803460"/>
+          <a:ext cx="4520856" cy="756363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10057</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>164757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425621</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>182738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2701084" y="113689027"/>
+          <a:ext cx="4452105" cy="402414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>91395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66245</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>32265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2691027" y="114576746"/>
+          <a:ext cx="4775542" cy="1670816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370702</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>137298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>363151</xdr:colOff>
+      <xdr:row>621</xdr:row>
+      <xdr:rowOff>98974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9789297" y="115968163"/>
+          <a:ext cx="3356232" cy="3613784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15210</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>16121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>783294</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844132" y="11894804"/>
+          <a:ext cx="4912695" cy="2109822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7604</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>123512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273772</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>30394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="836526" y="23698362"/>
+          <a:ext cx="6068623" cy="1237721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4774</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104178</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>30419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833696" y="28730897"/>
+          <a:ext cx="5901859" cy="1703474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53662</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>107324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268310</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876479" y="14077324"/>
+          <a:ext cx="4328732" cy="363759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41099</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>8943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225023</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>36308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863916" y="15052182"/>
+          <a:ext cx="9234910" cy="5286239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="AutoShape 1" descr="lockchain101-graphs-04.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1651000" y="22339300"/>
+          <a:ext cx="3048000" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="AutoShape 2" descr="lockchain101-graphs-04.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1651000" y="22148800"/>
+          <a:ext cx="3048000" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26831</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>44718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>799563</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>151863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="849648" y="21795704"/>
+          <a:ext cx="4064000" cy="4051300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214648</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>17887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>164563</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>10732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5151549" y="21768873"/>
+          <a:ext cx="4064000" cy="3937000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>48022</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>80493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704761</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>182987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="870839" y="26446408"/>
+          <a:ext cx="5593640" cy="4046649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32156</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>71549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178874</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>87201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="854973" y="31052394"/>
+          <a:ext cx="4260802" cy="4147624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="141414"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F8F8F8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5114,14 +8807,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -5149,31 +8842,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -5201,26 +8877,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5397,34 +9056,34 @@
   <dimension ref="B2:S35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5438,7 +9097,7 @@
       </c>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5447,7 +9106,7 @@
       <c r="Q9" s="4"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
         <v>1</v>
@@ -5461,7 +9120,7 @@
       </c>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -5473,7 +9132,7 @@
       </c>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -5485,7 +9144,7 @@
       </c>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -5497,7 +9156,7 @@
       </c>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5506,7 +9165,7 @@
       <c r="Q14" s="4"/>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5518,7 +9177,7 @@
       </c>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -5527,34 +9186,34 @@
       <c r="Q16" s="4"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q18" s="4"/>
       <c r="R18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="6"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q20" s="7"/>
       <c r="R20" s="8"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
@@ -5564,77 +9223,77 @@
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q23" s="4"/>
       <c r="R23" t="s">
         <v>13</v>
       </c>
       <c r="S23" s="6"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q24" s="4"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q25" s="4"/>
       <c r="R25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q26" s="4"/>
       <c r="R26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="S26" s="6"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q27" s="4"/>
       <c r="R27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="S27" s="6"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q28" s="4"/>
       <c r="R28" s="11" t="s">
         <v>5</v>
       </c>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q29" s="4"/>
       <c r="S29" s="6"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q30" s="4"/>
       <c r="R30" t="s">
         <v>7</v>
       </c>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
       <c r="S31" s="6"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
       <c r="S32" s="6"/>
     </row>
-    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
       <c r="S33" s="6"/>
     </row>
-    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
       <c r="S34" s="6"/>
     </row>
-    <row r="35" spans="17:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q35" s="7"/>
       <c r="R35" s="8"/>
       <c r="S35" s="9"/>
@@ -5650,660 +9309,660 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S517"/>
+  <dimension ref="B2:S618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="N506" sqref="N506"/>
+    <sheetView topLeftCell="A212" zoomScale="185" workbookViewId="0">
+      <selection activeCell="E618" sqref="E618"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D22" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D45" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D50" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D52" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E101" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D106" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D111" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D120" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D132" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C192" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="231" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D231" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="232" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="235" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D235" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="236" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D236" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="237" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D237" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="239" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D239" s="16" t="s">
         <v>144</v>
       </c>
@@ -6311,7 +9970,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="240" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:19" x14ac:dyDescent="0.2">
       <c r="O240" s="12" t="s">
         <v>145</v>
       </c>
@@ -6319,7 +9978,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="241" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D241" s="13" t="s">
         <v>164</v>
       </c>
@@ -6330,7 +9989,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="242" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D242" s="12" t="s">
         <v>165</v>
       </c>
@@ -6338,989 +9997,1294 @@
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:19" x14ac:dyDescent="0.2">
       <c r="O243" s="17" t="s">
         <v>147</v>
       </c>
       <c r="S243" s="20"/>
     </row>
-    <row r="244" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D244" s="13" t="s">
         <v>149</v>
       </c>
       <c r="S244" s="20"/>
     </row>
-    <row r="245" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D245" s="12" t="s">
         <v>148</v>
       </c>
       <c r="S245" s="20"/>
     </row>
-    <row r="246" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S246" s="20"/>
     </row>
-    <row r="247" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S247" s="20"/>
     </row>
-    <row r="248" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S248" s="20"/>
     </row>
-    <row r="249" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S249" s="20"/>
     </row>
-    <row r="250" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S250" s="20"/>
     </row>
-    <row r="251" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S251" s="20"/>
     </row>
-    <row r="252" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S252" s="20"/>
     </row>
-    <row r="253" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S253" s="20"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C291" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D294" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D297" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D298" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D299" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D300" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D302" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D304" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D305" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C321" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D322" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D323" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D324" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D325" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D326" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C328" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D329" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D330" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D331" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D332" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D333" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D334" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D335" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D336" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D337" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D338" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D339" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D341" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D342" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D343" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D344" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D345" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D346" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D348" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D349" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D350" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D351" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D352" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D353" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D355" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D356" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C359" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D360" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D361" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D362" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D363" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D364" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D365" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D367" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D368" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D369" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D370" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D371" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D372" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D374" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D375" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D376" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="377" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D377" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="378" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D378" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="379" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D379" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="380" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D380" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="381" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D381" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="383" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C383" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="384" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D384" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D386" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D387" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D388" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D389" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D390" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D391" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D393" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D394" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D395" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D397" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D398" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D400" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="401" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D401" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="402" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D402" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="403" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D403" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="404" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D404" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="405" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D405" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="406" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D406" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="407" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D407" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="408" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D408" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="411" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C411" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="412" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D412" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="413" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D413" s="15" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="414" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D414" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="415" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D415" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="416" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D416" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D417" s="15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D418" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D419" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D420" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E421" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D422" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E423" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E424" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D426" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D427" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D428" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D429" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D430" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D431" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="434" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C434" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="435" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D435" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="436" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D436" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="437" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D437" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="438" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D438" s="13"/>
     </row>
-    <row r="439" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D439" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="440" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D440" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="441" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D441" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="443" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D443" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="444" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D444" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="445" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D445" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="447" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D447" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="448" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D448" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D450" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D451" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D452" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D453" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D454" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D455" s="14" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D456" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D458" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D459" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D460" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D461" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D462" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D463" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D465" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D466" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D467" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D468" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D469" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D470" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D471" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D473" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D474" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D475" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D476" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D477" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D478" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D480" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D481" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D483" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D484" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D485" s="15" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D486" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D487" s="12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D488" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D489" s="16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D490" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D491" s="12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D493" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D494" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D495" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="498" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C498" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="499" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D499" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="500" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D500" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="501" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D501" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="503" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D503" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="504" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D504" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="505" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D505" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="506" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D506" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="507" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D507" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="508" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D508" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="509" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D509" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="511" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D511" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="512" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D512" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D514" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D515" s="15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D516" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D517" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B520" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C522" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D523" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D524" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E525" s="24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E526" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D527" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E528" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="529" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E529" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="H529" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="530" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E530" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="531" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D531" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="532" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D532" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="533" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D533" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="534" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E534" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="535" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E535" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="536" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E536" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="537" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E537" s="24"/>
+    </row>
+    <row r="538" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D538" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="539" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D539" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="540" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E540" s="24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="541" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E541" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="542" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E542" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="543" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F543" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="544" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F544" s="24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="545" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E545" s="24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="546" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F546" s="28"/>
+    </row>
+    <row r="548" spans="4:6" ht="23" x14ac:dyDescent="0.3">
+      <c r="D548" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F548" s="24"/>
+    </row>
+    <row r="549" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E549" s="24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="551" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E551" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="552" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F552" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="553" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E553" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="554" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F554" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="556" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E556" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="557" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E557" s="24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="558" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E558" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="559" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E559" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="560" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E560" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E562" s="24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="572" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E572" s="30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E573" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E574" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E575" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E576" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E578" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E579" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E581" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E582" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E583" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E584" s="24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E585" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E586" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E595" s="31" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E606" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E607" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E608" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E609" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E611" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E612" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E614" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E617" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E618" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -7333,4 +11297,706 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:C154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="167" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="2:2" ht="31" x14ac:dyDescent="0.4">
+      <c r="B8" s="42" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="31" x14ac:dyDescent="0.4">
+      <c r="B13" s="42" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27" x14ac:dyDescent="0.35">
+      <c r="B25" s="43" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="39" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="27" x14ac:dyDescent="0.35">
+      <c r="B35" s="43" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="39" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="41" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="27" x14ac:dyDescent="0.35">
+      <c r="B45" s="43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" s="39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="31" x14ac:dyDescent="0.4">
+      <c r="B55" s="42" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="B68" s="44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B69" s="40" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B72" s="39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C73" s="39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B74" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C75" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B76" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="31" x14ac:dyDescent="0.4">
+      <c r="B79" s="42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B80" s="39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B81" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B82" s="45" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B85" s="45" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B86" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B91" s="39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" s="39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" s="45" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="45" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="27" x14ac:dyDescent="0.35">
+      <c r="B100" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" s="39" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" s="39" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" s="45" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" s="39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B111" s="39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" s="39" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B121" s="46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="27" x14ac:dyDescent="0.35">
+      <c r="B125" s="43" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B126" s="45" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127" s="39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B129" s="39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B133" s="39" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B135" s="45" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B137" s="47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B148" s="39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B149" s="39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B150" s="45" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="27" x14ac:dyDescent="0.35">
+      <c r="B154" s="43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B168"/>
+  <sheetViews>
+    <sheetView topLeftCell="A133" zoomScale="142" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B41" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B42" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B45" s="34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="37" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B50" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B51" s="33" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B52" s="33" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B53" s="33" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B54" s="33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B58" s="34"/>
+    </row>
+    <row r="59" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B59" s="34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B92" s="33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B93" s="34"/>
+    </row>
+    <row r="94" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B94" s="34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B118" s="34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B142" s="34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B166" s="34" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B167" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B168" s="34" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>